--- a/UiBank RPA Process/Data/Input/expected.xlsx
+++ b/UiBank RPA Process/Data/Input/expected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionut-mihai.nicula\Documents\UiPath\Produt Ownership\Test-Suite\Studio Pro\projects\REF_UiBankDemo\REF_UiBankDemo\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emerald\UiPath\Projects\CI-CD Automation\UiBank RPA Process\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8F0FE-B585-4B97-9C48-A2F67A73727A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFFFFCE-9C1D-4D9A-8CBC-4E82FEE33CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>email</t>
   </si>
   <si>
     <t>savings</t>
@@ -436,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -463,14 +460,11 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11111</v>
       </c>
@@ -481,20 +475,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>-4319.92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12345</v>
       </c>
@@ -505,20 +498,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>-1632.65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>123424</v>
       </c>
@@ -529,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>-4217.53</v>
@@ -537,12 +529,11 @@
       <c r="F4" s="3">
         <v>43924.768912037034</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9182736</v>
       </c>
@@ -553,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>-2164.35</v>
@@ -561,12 +552,11 @@
       <c r="F5" s="3">
         <v>43985.627870370372</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -577,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>-778.97</v>
@@ -585,12 +575,11 @@
       <c r="F6" s="3">
         <v>44077.509814814817</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>71005764</v>
       </c>
@@ -599,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>-2430.98</v>
@@ -607,12 +596,11 @@
       <c r="F7" s="3">
         <v>44138.66306712963</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15574457</v>
       </c>
@@ -621,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>-2550.11</v>
@@ -629,12 +617,11 @@
       <c r="F8" s="3">
         <v>44138.708564814813</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
